--- a/Demand_scenario_prep.xlsx
+++ b/Demand_scenario_prep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoni\Desktop\Optimization in Modern Power Systems\Optimization_Code\optimization_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de7c5f4e9a006291/Documents/Optimisation in MS/assignement/optimization_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65116ED8-EA37-4D37-8999-07AB8B4FF59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{65116ED8-EA37-4D37-8999-07AB8B4FF59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{022EC1F6-971D-428D-92CE-FC294BB21D83}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -92,6 +92,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,15 +364,15 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,7 +389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -393,19 +397,19 @@
         <v>1775.835</v>
       </c>
       <c r="C2">
-        <f>B2*1.3</f>
-        <v>2308.5855000000001</v>
+        <f>B2*0.2</f>
+        <v>355.16700000000003</v>
       </c>
       <c r="D2">
-        <f>B2*1.7</f>
-        <v>3018.9195</v>
+        <f>B2*30</f>
+        <v>53275.05</v>
       </c>
       <c r="E2">
-        <f>B2*2</f>
-        <v>3551.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <f>10*B2</f>
+        <v>17758.349999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -413,19 +417,19 @@
         <v>1669.8150000000001</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C25" si="0">B3*1.3</f>
-        <v>2170.7595000000001</v>
+        <f t="shared" ref="C3:C25" si="0">B3*0.2</f>
+        <v>333.96300000000002</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D25" si="1">B3*1.7</f>
-        <v>2838.6855</v>
+        <f t="shared" ref="D3:D25" si="1">B3*30</f>
+        <v>50094.450000000004</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E25" si="2">B3*2</f>
-        <v>3339.63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <f t="shared" ref="E3:E25" si="2">10*B3</f>
+        <v>16698.150000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -434,18 +438,18 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>2067.39</v>
+        <v>318.06</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>2703.5099999999998</v>
+        <v>47709</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>3180.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -454,18 +458,18 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>2032.9335000000001</v>
+        <v>312.75900000000001</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>2658.4515000000001</v>
+        <v>46913.850000000006</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>3127.59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15637.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -474,18 +478,18 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>2032.9335000000001</v>
+        <v>312.75900000000001</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>2658.4515000000001</v>
+        <v>46913.850000000006</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>3127.59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15637.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -494,18 +498,18 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>2067.39</v>
+        <v>318.06</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>2703.5099999999998</v>
+        <v>47709</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>3180.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -514,18 +518,18 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>2549.7809999999999</v>
+        <v>392.274</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>3334.3289999999997</v>
+        <v>58841.1</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>3922.74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>19613.699999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -534,18 +538,18 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>2963.259</v>
+        <v>455.88599999999997</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>3875.0309999999995</v>
+        <v>68382.899999999994</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>4558.8599999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22794.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -554,18 +558,18 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>3273.3674999999998</v>
+        <v>503.59500000000003</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>4280.5574999999999</v>
+        <v>75539.25</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>5035.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25179.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -574,18 +578,18 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>3307.8240000000001</v>
+        <v>508.89600000000002</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>4325.616</v>
+        <v>76334.399999999994</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>5088.96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25444.799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -594,18 +598,18 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>3307.8240000000001</v>
+        <v>508.89600000000002</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>4325.616</v>
+        <v>76334.399999999994</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>5088.96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25444.799999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -614,18 +618,18 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>3273.3674999999998</v>
+        <v>503.59500000000003</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>4280.5574999999999</v>
+        <v>75539.25</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>5035.95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25179.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -634,18 +638,18 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>3273.3674999999998</v>
+        <v>503.59500000000003</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>4280.5574999999999</v>
+        <v>75539.25</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>5035.95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25179.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -654,18 +658,18 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>3273.3674999999998</v>
+        <v>503.59500000000003</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>4280.5574999999999</v>
+        <v>75539.25</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>5035.95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25179.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -674,18 +678,18 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>3204.4545000000003</v>
+        <v>492.99300000000005</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>4190.4404999999997</v>
+        <v>73948.950000000012</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>4929.93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>24649.65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -694,18 +698,18 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>3204.4545000000003</v>
+        <v>492.99300000000005</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>4190.4404999999997</v>
+        <v>73948.950000000012</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>4929.93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>24649.65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -714,18 +718,18 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>3411.1934999999999</v>
+        <v>524.79899999999998</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>4460.7914999999994</v>
+        <v>78719.849999999991</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>5247.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>26239.949999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -734,18 +738,18 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>3445.65</v>
+        <v>530.1</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>4505.8499999999995</v>
+        <v>79515</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>5301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>26505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -754,18 +758,18 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>3445.65</v>
+        <v>530.1</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>4505.8499999999995</v>
+        <v>79515</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>5301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>26505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -774,18 +778,18 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>3307.8240000000001</v>
+        <v>508.89600000000002</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>4325.616</v>
+        <v>76334.399999999994</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>5088.96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25444.799999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -794,18 +798,18 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3135.5414999999998</v>
+        <v>482.39100000000002</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>4100.3234999999995</v>
+        <v>72358.649999999994</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>4823.91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>24119.55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -814,18 +818,18 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>2859.8895000000002</v>
+        <v>439.983</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>3739.8554999999997</v>
+        <v>65997.45</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>4399.83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21999.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -834,18 +838,18 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>2515.3245000000002</v>
+        <v>386.97300000000001</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>3289.2705000000001</v>
+        <v>58045.95</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>3869.73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>19348.650000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -854,15 +858,15 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>2170.7595000000001</v>
+        <v>333.96300000000002</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>2838.6855</v>
+        <v>50094.450000000004</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>3339.63</v>
+        <v>16698.150000000001</v>
       </c>
     </row>
   </sheetData>
